--- a/results/raw_sample_data.xlsx
+++ b/results/raw_sample_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">sample_name</t>
   </si>
@@ -35,6 +35,15 @@
     <t xml:space="preserve">elevated_value</t>
   </si>
   <si>
+    <t xml:space="preserve">mean_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qc_flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean_value</t>
   </si>
   <si>
@@ -51,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">AXL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD</t>
   </si>
   <si>
     <t xml:space="preserve">PMEL</t>
@@ -440,19 +455,28 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>5.605</v>
@@ -464,24 +488,33 @@
         <v>1.41617543821454</v>
       </c>
       <c r="H2" t="n">
-        <v>4.24932788296689</v>
+        <v>4.95761599415497</v>
       </c>
       <c r="I2" t="n">
-        <v>7.93899902208459</v>
+        <v>8.98289821311646</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.70517373156549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.544747315344594</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
         <v>6.70833333333334</v>
@@ -492,21 +525,30 @@
       <c r="G3" t="n">
         <v>0.65914449493497</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
+      <c r="H3" t="n">
+        <v>5.14687372997486</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.86940529650504</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>6.71333333333333</v>
@@ -517,21 +559,30 @@
       <c r="G4" t="n">
         <v>0.656864028224039</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="H4" t="n">
+        <v>5.1474438466526</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.86902054355681</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>1.90333333333333</v>
@@ -542,21 +593,30 @@
       <c r="G5" t="n">
         <v>18.4259444885725</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
+      <c r="H5" t="n">
+        <v>0.70517373156549</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.544747315344594</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>9.605</v>
@@ -567,21 +627,30 @@
       <c r="G6" t="n">
         <v>0.088510964888409</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="H6" t="n">
+        <v>5.2895321124865</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.76489827110447</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>-3.62333333333333</v>
@@ -593,24 +662,33 @@
         <v>0.812440088191224</v>
       </c>
       <c r="H7" t="n">
-        <v>2.05877606543035</v>
+        <v>2.37036005974013</v>
       </c>
       <c r="I7" t="n">
-        <v>2.71708262493766</v>
+        <v>3.03251602099378</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.879588132439754</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.757290859300415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>-3.22666666666667</v>
@@ -621,21 +699,30 @@
       <c r="G8" t="n">
         <v>0.617138697656838</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="H8" t="n">
+        <v>2.41918540737373</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.99623397438359</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>-4.87666666666667</v>
@@ -646,21 +733,30 @@
       <c r="G9" t="n">
         <v>1.93678883351307</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="H9" t="n">
+        <v>2.08927287340967</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.13642848141077</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
         <v>-6.68333333333333</v>
@@ -671,21 +767,30 @@
       <c r="G10" t="n">
         <v>6.77552779739273</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
+      <c r="H10" t="n">
+        <v>0.879588132439754</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.757290859300415</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
         <v>-1.205</v>
@@ -696,21 +801,30 @@
       <c r="G11" t="n">
         <v>0.151984910397887</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="H11" t="n">
+        <v>2.53547385418847</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.88590461420188</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>5.675</v>
@@ -722,24 +836,33 @@
         <v>1.3466111665805</v>
       </c>
       <c r="H12" t="n">
-        <v>1.40936188860499</v>
+        <v>1.42504956911111</v>
       </c>
       <c r="I12" t="n">
-        <v>1.28388679304441</v>
+        <v>1.48195131757898</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.878387309274767</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.564145699714005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" t="n">
         <v>5.63333333333333</v>
@@ -750,21 +873,30 @@
       <c r="G13" t="n">
         <v>1.38606988565042</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="H13" t="n">
+        <v>1.41518488934363</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.48242853033611</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
         <v>7.36</v>
@@ -775,21 +907,30 @@
       <c r="G14" t="n">
         <v>0.418799995921998</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="H14" t="n">
+        <v>1.65700236177573</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.33752820660237</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
         <v>4.28333333333333</v>
@@ -800,21 +941,30 @@
       <c r="G15" t="n">
         <v>3.53326020592586</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="H15" t="n">
+        <v>0.878387309274767</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.564145699714005</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E16" t="n">
         <v>7.57</v>
@@ -825,21 +975,30 @@
       <c r="G16" t="n">
         <v>0.36206818894615</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="H16" t="n">
+        <v>1.67118531351969</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.31939772531941</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
       </c>
       <c r="E17" t="n">
         <v>9.82666666666667</v>
@@ -851,24 +1010,33 @@
         <v>0.0759047159620971</v>
       </c>
       <c r="H17" t="n">
-        <v>0.279569477736333</v>
+        <v>0.347457731661078</v>
       </c>
       <c r="I17" t="n">
-        <v>0.383672147076145</v>
+        <v>0.439492416928125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0878244192277333</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0144730745949807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>6.33333333333334</v>
@@ -879,21 +1047,30 @@
       <c r="G18" t="n">
         <v>0.854804653262131</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
+      <c r="H18" t="n">
+        <v>0.0878244192277333</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0144730745949807</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
       </c>
       <c r="E19" t="n">
         <v>9.37333333333333</v>
@@ -904,21 +1081,30 @@
       <c r="G19" t="n">
         <v>0.103928746883307</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
+      <c r="H19" t="n">
+        <v>0.338116388020675</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.447481877219595</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
       </c>
       <c r="E20" t="n">
         <v>9.68666666666666</v>
@@ -929,21 +1115,30 @@
       <c r="G20" t="n">
         <v>0.0836397948377961</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" t="n">
+        <v>0.344879372035845</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.441830488878425</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
         <v>-4.235</v>
@@ -955,24 +1150,33 @@
         <v>1.24142749152611</v>
       </c>
       <c r="H21" t="n">
-        <v>1.34598431049553</v>
+        <v>1.38083658348534</v>
       </c>
       <c r="I21" t="n">
-        <v>0.423551884776129</v>
+        <v>0.511670023599957</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.13852306597151</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.104179128280967</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
         <v>-3.97</v>
@@ -983,21 +1187,30 @@
       <c r="G22" t="n">
         <v>1.03311438768413</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
+      <c r="H22" t="n">
+        <v>1.450274284766</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.451481900241979</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
         <v>-4.9</v>
@@ -1008,21 +1221,30 @@
       <c r="G23" t="n">
         <v>1.9683680440676</v>
       </c>
-      <c r="H23"/>
-      <c r="I23"/>
+      <c r="H23" t="n">
+        <v>1.13852306597151</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.104179128280967</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
         <v>-4.11333333333334</v>
@@ -1033,21 +1255,30 @@
       <c r="G24" t="n">
         <v>1.14102731870429</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="H24" t="n">
+        <v>1.41430330775928</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.491008539969901</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
         <v>8.55333333333333</v>
@@ -1059,24 +1290,33 @@
         <v>0.183137609326417</v>
       </c>
       <c r="H25" t="n">
-        <v>0.170367387171128</v>
+        <v>0.166110646452698</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0592435882837039</v>
+        <v>0.0718051883907417</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.144149860409246</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0337720575629239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" t="n">
         <v>8.11</v>
@@ -1087,21 +1327,30 @@
       <c r="G26" t="n">
         <v>0.249019967456775</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
+      <c r="H26" t="n">
+        <v>0.144149860409246</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0337720575629239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
         <v>9.1</v>
@@ -1112,21 +1361,30 @@
       <c r="G27" t="n">
         <v>0.125376019152772</v>
       </c>
-      <c r="H27"/>
-      <c r="I27"/>
+      <c r="H27" t="n">
+        <v>0.185364509843913</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.06257173481947</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E28" t="n">
         <v>9.11666666666666</v>
@@ -1137,21 +1395,30 @@
       <c r="G28" t="n">
         <v>0.123935952748548</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="H28" t="n">
+        <v>0.185844531978655</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0618664049443206</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E29" t="n">
         <v>0.395</v>
@@ -1163,24 +1430,33 @@
         <v>0.568846422726355</v>
       </c>
       <c r="H29" t="n">
+        <v>1.18882332653115</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.436761142198583</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="n">
         <v>1.08549384256369</v>
       </c>
-      <c r="I29" t="n">
+      <c r="L29" t="n">
         <v>0.465478388123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
         <v>-1.22</v>
@@ -1191,21 +1467,30 @@
       <c r="G30" t="n">
         <v>1.74244257569016</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
+      <c r="H30" t="n">
+        <v>0.954104095938393</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.375982939606361</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30"/>
+      <c r="L30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
         <v>0.25</v>
@@ -1216,21 +1501,30 @@
       <c r="G31" t="n">
         <v>0.62899092664011</v>
       </c>
-      <c r="H31"/>
-      <c r="I31"/>
+      <c r="H31" t="n">
+        <v>1.1767944257484</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.456419969532408</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31"/>
+      <c r="L31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
         <v>-0.965</v>
@@ -1241,21 +1535,30 @@
       <c r="G32" t="n">
         <v>1.46014446132604</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" t="n">
+        <v>1.01056371881122</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.478255931923776</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32"/>
+      <c r="L32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E33" t="n">
         <v>-0.306666666666665</v>
@@ -1266,21 +1569,30 @@
       <c r="G33" t="n">
         <v>0.925161911868552</v>
       </c>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="H33" t="n">
+        <v>1.11756022870271</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.512957857783516</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E34" t="n">
         <v>-0.666666666666668</v>
@@ -1291,21 +1603,30 @@
       <c r="G34" t="n">
         <v>1.18737675713091</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="H34" t="n">
+        <v>1.06511725965024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.51742016174263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
         <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
       </c>
       <c r="E35" t="n">
         <v>11.54</v>
@@ -1317,24 +1638,33 @@
         <v>0.307371552903822</v>
       </c>
       <c r="H35" t="n">
-        <v>1.3414115273197</v>
+        <v>1.54821952220288</v>
       </c>
       <c r="I35" t="n">
-        <v>1.25526887646322</v>
+        <v>1.28407684336435</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.845967612333872</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.358664039942537</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
         <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
       </c>
       <c r="E36" t="n">
         <v>7.905</v>
@@ -1345,21 +1675,30 @@
       <c r="G36" t="n">
         <v>3.81863110224885</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" t="n">
+        <v>0.845967612333872</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.358664039942537</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
         <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
       </c>
       <c r="E37" t="n">
         <v>10.275</v>
@@ -1370,21 +1709,30 @@
       <c r="G37" t="n">
         <v>0.738697477136564</v>
       </c>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="H37" t="n">
+        <v>1.46195433735633</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.3640548641404</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
       </c>
       <c r="E38" t="n">
         <v>9.625</v>
@@ -1395,21 +1743,30 @@
       <c r="G38" t="n">
         <v>1.15914058743559</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
+      <c r="H38" t="n">
+        <v>1.37786571529652</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.3998778988232</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
         <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
       </c>
       <c r="E39" t="n">
         <v>9.59333333333333</v>
@@ -1420,21 +1777,30 @@
       <c r="G39" t="n">
         <v>1.18486461409791</v>
       </c>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="H39" t="n">
+        <v>1.37272090996406</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.40081150033106</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
         <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
       </c>
       <c r="E40" t="n">
         <v>10.09</v>
@@ -1445,21 +1811,30 @@
       <c r="G40" t="n">
         <v>0.839763830095468</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="H40" t="n">
+        <v>1.44174106676455</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.37627388866912</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E41" t="n">
         <v>5.98</v>
@@ -1471,24 +1846,33 @@
         <v>0.572472294009942</v>
       </c>
       <c r="H41" t="n">
+        <v>1.33869875134691</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.646271557835154</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.21099434179075</v>
       </c>
-      <c r="I41" t="n">
+      <c r="L41" t="n">
         <v>0.657254926564928</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
         <v>4.30166666666667</v>
@@ -1499,21 +1883,30 @@
       <c r="G42" t="n">
         <v>1.83224332832943</v>
       </c>
-      <c r="H42"/>
-      <c r="I42"/>
+      <c r="H42" t="n">
+        <v>1.08674454448302</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.651302508159409</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
         <v>4.735</v>
@@ -1524,21 +1917,30 @@
       <c r="G43" t="n">
         <v>1.35686555439105</v>
       </c>
-      <c r="H43"/>
-      <c r="I43"/>
+      <c r="H43" t="n">
+        <v>1.18182009927069</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.730476916074486</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E44" t="n">
         <v>7.02166666666667</v>
@@ -1549,21 +1951,30 @@
       <c r="G44" t="n">
         <v>0.278087559528068</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="H44" t="n">
+        <v>1.39757569824329</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.528096135944793</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E45" t="n">
         <v>4.755</v>
@@ -1574,21 +1985,30 @@
       <c r="G45" t="n">
         <v>1.33818518534096</v>
       </c>
-      <c r="H45"/>
-      <c r="I45"/>
+      <c r="H45" t="n">
+        <v>1.18555617308071</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.731523611999252</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E46" t="n">
         <v>4.25833333333333</v>
@@ -1599,21 +2019,30 @@
       <c r="G46" t="n">
         <v>1.88811212914507</v>
       </c>
-      <c r="H46"/>
-      <c r="I46"/>
+      <c r="H46" t="n">
+        <v>1.07557078431989</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.634376464516028</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
         <v>-0.320000000000004</v>
@@ -1625,24 +2054,33 @@
         <v>0.933751856309053</v>
       </c>
       <c r="H47" t="n">
+        <v>0.832459439994339</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.288536788682513</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.849341509380125</v>
       </c>
-      <c r="I47" t="n">
+      <c r="L47" t="n">
         <v>0.26136719063236</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
         <v>0.196666666666665</v>
@@ -1653,21 +2091,30 @@
       <c r="G48" t="n">
         <v>0.652678510551951</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="H48" t="n">
+        <v>0.88867410914576</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.271639669215283</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
         <v>-0.728333333333332</v>
@@ -1678,21 +2125,30 @@
       <c r="G49" t="n">
         <v>1.23923040301243</v>
       </c>
-      <c r="H49"/>
-      <c r="I49"/>
+      <c r="H49" t="n">
+        <v>0.771363730653664</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.199466803279317</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
         <v>-0.240000000000002</v>
@@ -1703,21 +2159,30 @@
       <c r="G50" t="n">
         <v>0.883383083805398</v>
       </c>
-      <c r="H50"/>
-      <c r="I50"/>
+      <c r="H50" t="n">
+        <v>0.84253319449507</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.291621950111802</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
         <v>0.649999999999999</v>
@@ -1728,21 +2193,30 @@
       <c r="G51" t="n">
         <v>0.476685983846571</v>
       </c>
-      <c r="H51"/>
-      <c r="I51"/>
+      <c r="H51" t="n">
+        <v>0.923872614486836</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.209115681407706</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
         <v>-0.283333333333335</v>
@@ -1753,21 +2227,30 @@
       <c r="G52" t="n">
         <v>0.91031921875535</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="H52" t="n">
+        <v>0.83714596750508</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.290302473485193</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
         <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
       </c>
       <c r="E53" t="n">
         <v>7.38</v>
@@ -1779,24 +2262,33 @@
         <v>5.49475652269962</v>
       </c>
       <c r="H53" t="n">
-        <v>2.42316735282808</v>
+        <v>1.80884951885377</v>
       </c>
       <c r="I53" t="n">
-        <v>1.64871564145111</v>
+        <v>0.753280209759495</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.80884951885377</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.753280209759495</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
         <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
       </c>
       <c r="E54" t="n">
         <v>8.20666666666667</v>
@@ -1807,21 +2299,30 @@
       <c r="G54" t="n">
         <v>3.0981111171392</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
+      <c r="H54" t="n">
+        <v>2.28817859996585</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.80586941871837</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
         <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
       </c>
       <c r="E55" t="n">
         <v>9.24166666666667</v>
@@ -1832,21 +2333,30 @@
       <c r="G55" t="n">
         <v>1.51192742437088</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
+      <c r="H55" t="n">
+        <v>2.60541533851951</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.77446375584078</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
         <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
       </c>
       <c r="E56" t="n">
         <v>9.02666666666667</v>
@@ -1857,21 +2367,30 @@
       <c r="G56" t="n">
         <v>1.75490007973138</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="H56" t="n">
+        <v>2.55682080744741</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.80661416425017</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
         <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" t="s">
-        <v>13</v>
       </c>
       <c r="E57" t="n">
         <v>9.64333333333334</v>
@@ -1882,21 +2401,30 @@
       <c r="G57" t="n">
         <v>1.14450377561469</v>
       </c>
-      <c r="H57"/>
-      <c r="I57"/>
+      <c r="H57" t="n">
+        <v>2.67890006827075</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.70509088316409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
         <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" t="s">
-        <v>13</v>
       </c>
       <c r="E58" t="n">
         <v>9.22</v>
@@ -1907,21 +2435,30 @@
       <c r="G58" t="n">
         <v>1.53480519741268</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
+      <c r="H58" t="n">
+        <v>2.60083978391116</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.77794063095612</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
         <v>19</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>14</v>
       </c>
       <c r="E59" t="n">
         <v>2.89</v>
@@ -1933,24 +2470,33 @@
         <v>4.87457952019885</v>
       </c>
       <c r="H59" t="n">
-        <v>5.91478720209296</v>
+        <v>6.12282873847178</v>
       </c>
       <c r="I59" t="n">
-        <v>2.52295544859216</v>
+        <v>2.76261119921617</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.94921499808977</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.981915289574033</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
         <v>19</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" t="s">
-        <v>14</v>
       </c>
       <c r="E60" t="n">
         <v>2.45</v>
@@ -1961,21 +2507,30 @@
       <c r="G60" t="n">
         <v>6.61287567158954</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="H60" t="n">
+        <v>5.77516950819364</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.79471501071269</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
         <v>19</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>14</v>
       </c>
       <c r="E61" t="n">
         <v>1.75</v>
@@ -1986,21 +2541,30 @@
       <c r="G61" t="n">
         <v>10.7426482221089</v>
       </c>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="H61" t="n">
+        <v>4.94921499808977</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.981915289574033</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
         <v>19</v>
-      </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s">
-        <v>14</v>
       </c>
       <c r="E62" t="n">
         <v>2.98666666666667</v>
@@ -2011,21 +2575,30 @@
       <c r="G62" t="n">
         <v>4.55866410424035</v>
       </c>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="H62" t="n">
+        <v>6.18601182166348</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.7211962971306</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
         <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" t="s">
-        <v>14</v>
       </c>
       <c r="E63" t="n">
         <v>2.95</v>
@@ -2036,21 +2609,30 @@
       <c r="G63" t="n">
         <v>4.6760092305245</v>
       </c>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="H63" t="n">
+        <v>6.16254279640665</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.73792968967852</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
         <v>19</v>
-      </c>
-      <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" t="s">
-        <v>14</v>
       </c>
       <c r="E64" t="n">
         <v>3.16666666666667</v>
@@ -2061,21 +2643,30 @@
       <c r="G64" t="n">
         <v>4.02394646389561</v>
       </c>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="H64" t="n">
+        <v>6.29295534973243</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.62374667895132</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64"/>
+      <c r="L64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
         <v>0.729999999999997</v>
@@ -2087,24 +2678,33 @@
         <v>0.759611332117801</v>
       </c>
       <c r="H65" t="n">
-        <v>1.06113673605621</v>
+        <v>1.1214418168439</v>
       </c>
       <c r="I65" t="n">
-        <v>0.420512975630868</v>
+        <v>0.440185963629398</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.918237506176025</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.260552353836564</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
         <v>0.528333333333332</v>
@@ -2115,21 +2715,30 @@
       <c r="G66" t="n">
         <v>0.873572895916694</v>
       </c>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="H66" t="n">
+        <v>1.09864950408412</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.458786328375252</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
         <v>0.923333333333332</v>
@@ -2140,21 +2749,30 @@
       <c r="G67" t="n">
         <v>0.664342907048256</v>
       </c>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="H67" t="n">
+        <v>1.14049550185781</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.41689968879908</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
         <v>-0.0900000000000034</v>
@@ -2165,21 +2783,30 @@
       <c r="G68" t="n">
         <v>1.34102239775344</v>
       </c>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="H68" t="n">
+        <v>1.00515960371677</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.444452650183686</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68"/>
+      <c r="L68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
         <v>-0.494999999999997</v>
@@ -2190,21 +2817,30 @@
       <c r="G69" t="n">
         <v>1.77563288545716</v>
       </c>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="H69" t="n">
+        <v>0.918237506176025</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.260552353836564</v>
+      </c>
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E70" t="n">
         <v>0.403333333333332</v>
@@ -2215,21 +2851,30 @@
       <c r="G70" t="n">
         <v>0.952637998043937</v>
       </c>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="H70" t="n">
+        <v>1.08283648365867</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.466376843869131</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70"/>
+      <c r="L70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E71" t="n">
         <v>8.08</v>
@@ -2241,24 +2886,33 @@
         <v>3.37201536733711</v>
       </c>
       <c r="H71" t="n">
-        <v>1.33222474278616</v>
+        <v>0.924266617875972</v>
       </c>
       <c r="I71" t="n">
-        <v>1.15864001598173</v>
+        <v>0.655617739762199</v>
+      </c>
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.924266617875972</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.655617739762199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E72" t="n">
         <v>10.9533333333333</v>
@@ -2269,21 +2923,30 @@
       <c r="G72" t="n">
         <v>0.460182420712896</v>
       </c>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="H72" t="n">
+        <v>1.50663320720082</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.20412666063276</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E73" t="n">
         <v>8.79666666666667</v>
@@ -2294,21 +2957,30 @@
       <c r="G73" t="n">
         <v>2.05187727510024</v>
       </c>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="H73" t="n">
+        <v>1.18829423632335</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.23397262048753</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73"/>
+      <c r="L73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E74" t="n">
         <v>10.94</v>
@@ -2319,21 +2991,30 @@
       <c r="G74" t="n">
         <v>0.464455123010414</v>
       </c>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="H74" t="n">
+        <v>1.50577866674131</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.20505233263579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74"/>
+      <c r="L74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E75" t="n">
         <v>10.095</v>
@@ -2344,21 +3025,30 @@
       <c r="G75" t="n">
         <v>0.834284363454885</v>
       </c>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="H75" t="n">
+        <v>1.43181281865242</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.26636289107116</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+      <c r="K75"/>
+      <c r="L75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
         <v>10.1366666666667</v>
@@ -2369,21 +3059,30 @@
       <c r="G76" t="n">
         <v>0.810533907101424</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="H76" t="n">
+        <v>1.43656290992311</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.26349117918624</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E77" t="n">
         <v>6.58499999999999</v>
@@ -2395,24 +3094,33 @@
         <v>2.00810308791184</v>
       </c>
       <c r="H77" t="n">
+        <v>1.02926852680836</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.752941921491099</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" t="n">
         <v>1.19240762032561</v>
       </c>
-      <c r="I77" t="n">
+      <c r="L77" t="n">
         <v>0.783085827168861</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E78" t="n">
         <v>7.93333333333333</v>
@@ -2423,21 +3131,30 @@
       <c r="G78" t="n">
         <v>0.788673460089305</v>
       </c>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="H78" t="n">
+        <v>1.27315445237287</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.847129791855067</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n">
         <v>8.79666666666667</v>
@@ -2448,21 +3165,30 @@
       <c r="G79" t="n">
         <v>0.433518860927296</v>
       </c>
-      <c r="H79"/>
-      <c r="I79"/>
+      <c r="H79" t="n">
+        <v>1.34418537220527</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.77055539784534</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E80" t="n">
         <v>7.87</v>
@@ -2473,21 +3199,30 @@
       <c r="G80" t="n">
         <v>0.824066879515044</v>
       </c>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="H80" t="n">
+        <v>1.26607576848772</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.851954690983424</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E81" t="n">
         <v>6.36</v>
@@ -2498,21 +3233,30 @@
       <c r="G81" t="n">
         <v>2.34702520191692</v>
       </c>
-      <c r="H81"/>
-      <c r="I81"/>
+      <c r="H81" t="n">
+        <v>0.961484104007346</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.605464068277375</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -2523,21 +3267,30 @@
       <c r="G82" t="n">
         <v>0.753058231593248</v>
       </c>
-      <c r="H82"/>
-      <c r="I82"/>
+      <c r="H82" t="n">
+        <v>1.28027749807208</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.841796234416069</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82"/>
+      <c r="L82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
         <v>2.82</v>
@@ -2549,24 +3302,33 @@
         <v>0.178418031771358</v>
       </c>
       <c r="H83" t="n">
+        <v>0.146003805984145</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.0498045475494759</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.154107362430948</v>
       </c>
-      <c r="I83" t="n">
+      <c r="L83" t="n">
         <v>0.0437759349348259</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
         <v>2.64</v>
@@ -2577,21 +3339,30 @@
       <c r="G84" t="n">
         <v>0.202126913039965</v>
       </c>
-      <c r="H84"/>
-      <c r="I84"/>
+      <c r="H84" t="n">
+        <v>0.138100845561276</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.036568391068415</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
         <v>3.55666666666666</v>
@@ -2602,21 +3373,30 @@
       <c r="G85" t="n">
         <v>0.107073002371307</v>
       </c>
-      <c r="H85"/>
-      <c r="I85"/>
+      <c r="H85" t="n">
+        <v>0.169785482450829</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.0374122711817999</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
         <v>3.29</v>
@@ -2627,21 +3407,30 @@
       <c r="G86" t="n">
         <v>0.128811502541162</v>
       </c>
-      <c r="H86"/>
-      <c r="I86"/>
+      <c r="H86" t="n">
+        <v>0.162539315727543</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.0494763751779714</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+      <c r="K86"/>
+      <c r="L86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E87" t="n">
         <v>9.255</v>
@@ -2653,24 +3442,33 @@
         <v>1.49341084315061</v>
       </c>
       <c r="H87" t="n">
+        <v>1.18801891272358</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.399791152071463</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87" t="n">
         <v>1.26436689533034</v>
       </c>
-      <c r="I87" t="n">
+      <c r="L87" t="n">
         <v>0.360376702875715</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E88" t="n">
         <v>9.11166666666666</v>
@@ -2681,21 +3479,30 @@
       <c r="G88" t="n">
         <v>1.64940358047269</v>
       </c>
-      <c r="H88"/>
-      <c r="I88"/>
+      <c r="H88" t="n">
+        <v>1.13602133361622</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.309792757651117</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88"/>
+      <c r="L88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E89" t="n">
         <v>9.91666666666666</v>
@@ -2706,21 +3513,30 @@
       <c r="G89" t="n">
         <v>0.944056064572533</v>
       </c>
-      <c r="H89"/>
-      <c r="I89"/>
+      <c r="H89" t="n">
+        <v>1.37113717224961</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.35553860516525</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E90" t="n">
         <v>9.87666666666667</v>
@@ -2731,21 +3547,30 @@
       <c r="G90" t="n">
         <v>0.970597093125531</v>
       </c>
-      <c r="H90"/>
-      <c r="I90"/>
+      <c r="H90" t="n">
+        <v>1.36229016273194</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.370504054190667</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E91" t="n">
         <v>3.01833333333333</v>
@@ -2757,24 +3582,33 @@
         <v>23.7935725459624</v>
       </c>
       <c r="H91" t="n">
+        <v>34.7264540621582</v>
+      </c>
+      <c r="I91" t="n">
+        <v>16.4586796212274</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+      <c r="K91" t="n">
         <v>31.9932336831092</v>
       </c>
-      <c r="I91" t="n">
+      <c r="L91" t="n">
         <v>14.5077243038986</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
         <v>1.98833333333333</v>
@@ -2785,21 +3619,30 @@
       <c r="G92" t="n">
         <v>48.5870521666428</v>
       </c>
-      <c r="H92"/>
-      <c r="I92"/>
+      <c r="H92" t="n">
+        <v>26.4619608552647</v>
+      </c>
+      <c r="I92" t="n">
+        <v>11.4952695549339</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E93" t="n">
         <v>3.54333333333333</v>
@@ -2810,21 +3653,30 @@
       <c r="G93" t="n">
         <v>16.5355599983868</v>
       </c>
-      <c r="H93"/>
-      <c r="I93"/>
+      <c r="H93" t="n">
+        <v>37.1457915780167</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.5067173772599</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93"/>
+      <c r="L93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E94" t="n">
         <v>2.30333333333333</v>
@@ -2835,8 +3687,17 @@
       <c r="G94" t="n">
         <v>39.056750021445</v>
       </c>
-      <c r="H94"/>
-      <c r="I94"/>
+      <c r="H94" t="n">
+        <v>29.6387282369973</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.8062167468551</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94"/>
+      <c r="L94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
